--- a/common/src/main/webapp/imports/export-李丽-29.xlsx
+++ b/common/src/main/webapp/imports/export-李丽-29.xlsx
@@ -1154,10 +1154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1200,18 +1200,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1219,35 +1220,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,9 +1239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,19 +1254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1307,23 +1283,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1316,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,13 +1353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,91 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1413,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,25 +1491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,13 +1527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,17 +1547,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,9 +1582,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1601,22 +1621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,23 +1639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,10 +1650,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,137 +1662,137 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1800,16 +1800,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2172,7 +2166,7 @@
   <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D4" sqref="A1:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -2206,7 +2200,7 @@
     <col min="31" max="31" width="100.666666666667" style="1" customWidth="1"/>
     <col min="32" max="33" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
@@ -2225,7 +2219,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2234,13 +2228,13 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>59312</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -2249,7 +2243,7 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>605</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -2267,25 +2261,25 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AB1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -2308,7 +2302,7 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2317,13 +2311,13 @@
       <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>42572</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>47770</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -2350,25 +2344,25 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -2391,7 +2385,7 @@
       <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2400,13 +2394,13 @@
       <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>45345</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -2433,25 +2427,25 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9" t="s">
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AB3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -2474,7 +2468,7 @@
       <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2483,13 +2477,13 @@
       <c r="H4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>48764</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -2514,25 +2508,25 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AB4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -2555,7 +2549,7 @@
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2564,13 +2558,13 @@
       <c r="H5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>60784</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -2597,25 +2591,25 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="s">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AB5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE5" s="1" t="s">
@@ -2638,7 +2632,7 @@
       <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2647,10 +2641,10 @@
       <c r="H6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -2684,25 +2678,25 @@
       <c r="U6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AB6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE6" s="1" t="s">
@@ -2725,7 +2719,7 @@
       <c r="E7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2734,13 +2728,13 @@
       <c r="H7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>52314</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -2767,25 +2761,25 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AB7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -2808,7 +2802,7 @@
       <c r="E8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2817,13 +2811,13 @@
       <c r="H8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -2854,25 +2848,25 @@
       <c r="U8" s="3">
         <v>89737208</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9" t="s">
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AB8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -2895,7 +2889,7 @@
       <c r="E9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2904,13 +2898,13 @@
       <c r="H9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>45475</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -2935,25 +2929,25 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9" t="s">
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AB9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -2976,7 +2970,7 @@
       <c r="E10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2985,13 +2979,13 @@
       <c r="H10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>122</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -3020,25 +3014,25 @@
       <c r="U10" s="3">
         <v>89628678</v>
       </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9" t="s">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9" t="s">
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AB10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AB10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -3061,7 +3055,7 @@
       <c r="E11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -3070,10 +3064,10 @@
       <c r="H11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>134</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -3095,23 +3089,23 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9" t="s">
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AB11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD11" s="9" t="s">
+      <c r="AB11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -3132,7 +3126,7 @@
       <c r="E12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -3141,10 +3135,10 @@
       <c r="H12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>142</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -3172,25 +3166,25 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9" t="s">
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9" t="s">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="9" t="s">
+      <c r="AA12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AB12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="9" t="s">
+      <c r="AB12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE12" s="1" t="s">
@@ -3211,7 +3205,7 @@
       <c r="E13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -3220,10 +3214,10 @@
       <c r="H13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>152</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -3251,25 +3245,25 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9" t="s">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9" t="s">
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AB13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="9" t="s">
+      <c r="AB13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="7" t="s">
         <v>155</v>
       </c>
       <c r="AE13" s="1" t="s">
@@ -3292,7 +3286,7 @@
       <c r="E14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3301,13 +3295,13 @@
       <c r="H14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>46878</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -3332,28 +3326,28 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9" t="s">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9" t="s">
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AB14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AB14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3373,7 +3367,7 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -3382,13 +3376,13 @@
       <c r="H15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>175</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -3415,25 +3409,25 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9" t="s">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9" t="s">
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="9" t="s">
+      <c r="AA15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AB15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AB15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE15" s="1" t="s">
@@ -3456,7 +3450,7 @@
       <c r="E16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3465,13 +3459,13 @@
       <c r="H16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -3498,25 +3492,25 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9" t="s">
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9" t="s">
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="9" t="s">
+      <c r="AA16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AB16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD16" s="9" t="s">
+      <c r="AB16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE16" s="1" t="s">
@@ -3539,7 +3533,7 @@
       <c r="E17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>195</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3548,13 +3542,13 @@
       <c r="H17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>199</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -3581,25 +3575,25 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9" t="s">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9" t="s">
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="9" t="s">
+      <c r="AA17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AB17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD17" s="9" t="s">
+      <c r="AB17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE17" s="1" t="s">
@@ -3622,7 +3616,7 @@
       <c r="E18" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3631,13 +3625,13 @@
       <c r="H18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>211</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -3668,25 +3662,25 @@
       <c r="U18" s="3">
         <v>23419606</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9" t="s">
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9" t="s">
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="9" t="s">
+      <c r="AA18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="AB18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="9" t="s">
+      <c r="AB18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE18" s="1" t="s">
@@ -3705,7 +3699,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -3714,13 +3708,13 @@
       <c r="H19" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>221</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -3747,25 +3741,25 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9" t="s">
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9" t="s">
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="9" t="s">
+      <c r="AA19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="AB19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AB19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE19" s="1" t="s">
@@ -3788,7 +3782,7 @@
       <c r="E20" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -3797,13 +3791,13 @@
       <c r="H20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -3830,25 +3824,25 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9" t="s">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9" t="s">
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="9" t="s">
+      <c r="AA20" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AB20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD20" s="9" t="s">
+      <c r="AB20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE20" s="1" t="s">
@@ -3869,7 +3863,7 @@
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -3878,13 +3872,13 @@
       <c r="H21" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>242</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -3911,25 +3905,25 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9" t="s">
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9" t="s">
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="9" t="s">
+      <c r="AA21" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AB21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AB21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE21" s="1" t="s">
@@ -3952,7 +3946,7 @@
       <c r="E22" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -3961,13 +3955,13 @@
       <c r="H22" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>254</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -3994,25 +3988,25 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9" t="s">
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9" t="s">
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="9" t="s">
+      <c r="AA22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="AB22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AB22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE22" s="1" t="s">
@@ -4035,7 +4029,7 @@
       <c r="E23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -4044,13 +4038,13 @@
       <c r="H23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>264</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -4077,25 +4071,25 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9" t="s">
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9" t="s">
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA23" s="9" t="s">
+      <c r="AA23" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="AB23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD23" s="9" t="s">
+      <c r="AB23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE23" s="1" t="s">
@@ -4118,7 +4112,7 @@
       <c r="E24" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>271</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -4127,13 +4121,13 @@
       <c r="H24" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -4158,25 +4152,25 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9" t="s">
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9" t="s">
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AA24" s="9" t="s">
+      <c r="AA24" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AB24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD24" s="9" t="s">
+      <c r="AB24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE24" s="1" t="s">
@@ -4199,7 +4193,7 @@
       <c r="E25" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>282</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -4208,13 +4202,13 @@
       <c r="H25" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>286</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -4223,10 +4217,11 @@
       <c r="M25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="3" t="s">
         <v>287</v>
       </c>
@@ -4235,26 +4230,26 @@
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9" t="s">
+      <c r="U25" s="4"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9" t="s">
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="9" t="s">
+      <c r="AA25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="AB25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD25" s="9" t="s">
+      <c r="AB25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE25" s="1" t="s">
@@ -4277,7 +4272,7 @@
       <c r="E26" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -4286,13 +4281,13 @@
       <c r="H26" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>298</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -4319,25 +4314,25 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9" t="s">
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9" t="s">
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="9" t="s">
+      <c r="AA26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AB26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD26" s="9" t="s">
+      <c r="AB26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE26" s="1" t="s">
@@ -4360,7 +4355,7 @@
       <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>306</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -4369,13 +4364,13 @@
       <c r="H27" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -4402,25 +4397,25 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9" t="s">
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9" t="s">
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA27" s="9" t="s">
+      <c r="AA27" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="AB27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD27" s="9" t="s">
+      <c r="AB27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE27" s="1" t="s">
@@ -4443,7 +4438,7 @@
       <c r="E28" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>317</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -4452,13 +4447,13 @@
       <c r="H28" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>322</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -4489,20 +4484,20 @@
       <c r="U28" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="V28" s="9"/>
-      <c r="X28" s="9" t="s">
+      <c r="V28" s="7"/>
+      <c r="X28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AB28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD28" s="9" t="s">
+      <c r="AB28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE28" s="1" t="s">
@@ -4525,7 +4520,7 @@
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>330</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -4534,13 +4529,13 @@
       <c r="H29" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="5" t="s">
         <v>334</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -4561,7 +4556,7 @@
       <c r="Q29" s="3">
         <v>31238466</v>
       </c>
-      <c r="R29" s="6"/>
+      <c r="R29" s="4"/>
       <c r="S29" s="3" t="s">
         <v>335</v>
       </c>
@@ -4571,27 +4566,34 @@
       <c r="U29" s="3">
         <v>31238466</v>
       </c>
-      <c r="V29" s="9"/>
-      <c r="X29" s="9" t="s">
+      <c r="V29" s="7"/>
+      <c r="X29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AB29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD29" s="9" t="s">
+      <c r="AB29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE29" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="9:31">
+    <row r="30" hidden="1" customHeight="1" spans="1:31">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
         <v>339</v>
       </c>
@@ -4601,20 +4603,37 @@
       <c r="K30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="9" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="AB30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="9:11">
+    <row r="31" hidden="1" customHeight="1" spans="1:21">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
         <v>341</v>
       </c>
@@ -4624,8 +4643,25 @@
       <c r="K31" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="9:11">
+    <row r="32" hidden="1" customHeight="1" spans="1:21">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
         <v>344</v>
       </c>
@@ -4635,8 +4671,25 @@
       <c r="K32" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="9:11">
+    <row r="33" hidden="1" customHeight="1" spans="1:21">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
         <v>347</v>
       </c>
@@ -4646,8 +4699,25 @@
       <c r="K33" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="9:11">
+    <row r="34" hidden="1" customHeight="1" spans="1:21">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>350</v>
       </c>
@@ -4657,8 +4727,25 @@
       <c r="K34" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="9:11">
+    <row r="35" hidden="1" customHeight="1" spans="1:21">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
         <v>352</v>
       </c>
@@ -4668,8 +4755,25 @@
       <c r="K35" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="9:11">
+    <row r="36" hidden="1" customHeight="1" spans="1:21">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
         <v>355</v>
       </c>
@@ -4679,8 +4783,25 @@
       <c r="K36" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="9:11">
+    <row r="37" hidden="1" customHeight="1" spans="1:21">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>357</v>
       </c>
@@ -4690,8 +4811,25 @@
       <c r="K37" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="9:11">
+    <row r="38" hidden="1" customHeight="1" spans="1:21">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
         <v>360</v>
       </c>
@@ -4701,8 +4839,25 @@
       <c r="K38" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="9:11">
+    <row r="39" hidden="1" customHeight="1" spans="1:21">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>363</v>
       </c>
@@ -4712,8 +4867,25 @@
       <c r="K39" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="9:11">
+    <row r="40" hidden="1" customHeight="1" spans="1:21">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
         <v>366</v>
       </c>
@@ -4723,8 +4895,25 @@
       <c r="K40" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="9:11">
+    <row r="41" hidden="1" customHeight="1" spans="1:21">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
         <v>368</v>
       </c>
@@ -4734,8 +4923,25 @@
       <c r="K41" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="9:11">
+    <row r="42" hidden="1" customHeight="1" spans="1:21">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
         <v>284</v>
       </c>
@@ -4745,8 +4951,25 @@
       <c r="K42" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="9:11">
+    <row r="43" hidden="1" customHeight="1" spans="1:21">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
         <v>373</v>
       </c>
@@ -4756,6 +4979,16 @@
       <c r="K43" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:W29">
